--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2871560.821306263</v>
+        <v>2975740.455757334</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283176</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.1842403900294</v>
+        <v>42.64559995940405</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.54263159583988</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.4948552110764</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>200.4331707528101</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>179.1913296314493</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6841483267278</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.4829866158915</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.4848631226312</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>25.97544109408777</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>76.27638937073748</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>115.2693651530677</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710098</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695513</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>72.23766645969152</v>
       </c>
       <c r="V13" t="n">
-        <v>124.4121185570315</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.7243167060843</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>54.2675832342722</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>137.9792024346647</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>138.5343125815924</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>102.9012384238816</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>44.30292280757951</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
-        <v>84.87800743369371</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>47.49734780286086</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>123.3988099269041</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92025364381849</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>81.29683349370501</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>39.52129633183122</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>61.62152140683686</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>14.53306611597334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>115.7077656527111</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>166.0266533411973</v>
       </c>
       <c r="V43" t="n">
-        <v>21.44532649588036</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4147,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>112.1188594237458</v>
       </c>
       <c r="H46" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.073083428566</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>828.1105664881544</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2388.243802269323</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>560.4166776763448</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="C4" t="n">
-        <v>391.4804947484379</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D4" t="n">
-        <v>391.4804947484379</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>391.4804947484379</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>244.5905472505275</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>970.0546934046018</v>
+        <v>590.8354935246787</v>
       </c>
       <c r="X4" t="n">
-        <v>742.0651425065845</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.0651425065845</v>
+        <v>362.8459426266614</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4601,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.8392614048163</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9030784769094</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>604.7864390645736</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>456.8733454821805</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>309.9833979842701</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>309.9833979842701</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1646.067134668353</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.300519237879</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.300519237879</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1169.616031031992</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.280305378586</v>
+        <v>880.1988609950312</v>
       </c>
       <c r="X7" t="n">
-        <v>1326.280305378586</v>
+        <v>880.1988609950312</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.487726235056</v>
+        <v>659.406281851501</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>3093.390254706436</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>3093.390254706436</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379707</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.657199403895</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.8317579370582</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C10" t="n">
-        <v>794.8955750091513</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D10" t="n">
-        <v>644.7789355968156</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>496.8658420144225</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835076</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>963.8317579370582</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.8317579370582</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5069,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.8692823226941</v>
+        <v>950.7540666811323</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>781.8178837532255</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>631.70124434089</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>631.70124434089</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1904.493740652236</v>
       </c>
       <c r="V13" t="n">
-        <v>1562.717047231442</v>
+        <v>1649.809252446349</v>
       </c>
       <c r="W13" t="n">
-        <v>1273.299877194481</v>
+        <v>1360.392082409389</v>
       </c>
       <c r="X13" t="n">
-        <v>1045.310326296464</v>
+        <v>1132.402531511372</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.5177471529338</v>
+        <v>1132.402531511372</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>984.5467179762974</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356184</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.70124434089</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704554</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806537</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806537</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>4551.460220646407</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>4551.460220646407</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>4262.384993990605</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>4262.384993990605</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>3972.967823953645</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.350546539543</v>
+        <v>3744.978273055628</v>
       </c>
       <c r="Y19" t="n">
-        <v>783.5579673960132</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.21291626627</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2074.122646505557</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2985.713220456422</v>
+        <v>951.7772127656151</v>
       </c>
       <c r="C22" t="n">
-        <v>2985.713220456422</v>
+        <v>782.8410298377083</v>
       </c>
       <c r="D22" t="n">
-        <v>2985.713220456422</v>
+        <v>632.7243904253728</v>
       </c>
       <c r="E22" t="n">
-        <v>2837.800126874029</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F22" t="n">
-        <v>2690.910179376118</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G22" t="n">
-        <v>2523.714080090998</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1398.968683817748</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>1354.218256739385</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>1133.425677595855</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2510.268290553495</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L24" t="n">
-        <v>3005.593896769254</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>3602.972384395806</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>4230.570347950413</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3114.186543342963</v>
+        <v>948.5505208511896</v>
       </c>
       <c r="C25" t="n">
-        <v>2945.250360415057</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="D25" t="n">
-        <v>2795.133721002721</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="E25" t="n">
-        <v>2647.220627420328</v>
+        <v>631.70124434089</v>
       </c>
       <c r="F25" t="n">
-        <v>2647.220627420328</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1640.40873486192</v>
       </c>
       <c r="W25" t="n">
-        <v>3744.61713821475</v>
+        <v>1350.991564824959</v>
       </c>
       <c r="X25" t="n">
-        <v>3516.627587316733</v>
+        <v>1350.991564824959</v>
       </c>
       <c r="Y25" t="n">
-        <v>3295.835008173203</v>
+        <v>1130.198985681429</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3006.417838136243</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.417838136243</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8426071208989</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>3314.305816915985</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O33" t="n">
-        <v>1888.077129657224</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P33" t="n">
-        <v>2311.700279152292</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>215.8238677453423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6892,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>527.7722521572603</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>379.8591585748671</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7247,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
         <v>1231.938859683105</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2878.328163333972</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>3475.706650960524</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V43" t="n">
-        <v>1849.578742244367</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W43" t="n">
-        <v>1560.161572207407</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>213.9468079295524</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7255247667965</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.107663475853</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>112.9792378643555</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>43.04708356697975</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>87.17534280744474</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>37.39347442234231</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.4067325814575</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>80.64613085857513</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>204.640295520967</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>25.21666309130821</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.7894017452187</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>64.12421452922624</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.79952661609438</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>43.04708356698248</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>120.1578210480468</v>
       </c>
       <c r="V43" t="n">
-        <v>230.6923168279476</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="H46" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512766</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685521</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685527</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832196.9687525514</v>
+        <v>-832196.9687525512</v>
       </c>
       <c r="C6" t="n">
-        <v>496547.7769750414</v>
+        <v>496547.7769750411</v>
       </c>
       <c r="D6" t="n">
         <v>496547.7769750413</v>
       </c>
       <c r="E6" t="n">
-        <v>245322.8660283883</v>
+        <v>245322.8660283876</v>
       </c>
       <c r="F6" t="n">
-        <v>570735.3278357433</v>
+        <v>570735.3278357435</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.3278357437</v>
+        <v>570735.3278357435</v>
       </c>
       <c r="H6" t="n">
-        <v>570735.3278357435</v>
+        <v>570735.3278357432</v>
       </c>
       <c r="I6" t="n">
         <v>570735.3278357433</v>
       </c>
       <c r="J6" t="n">
-        <v>353204.1254384656</v>
+        <v>353204.1254384659</v>
       </c>
       <c r="K6" t="n">
         <v>570735.3278357437</v>
       </c>
       <c r="L6" t="n">
+        <v>570735.3278357437</v>
+      </c>
+      <c r="M6" t="n">
+        <v>485680.2999002315</v>
+      </c>
+      <c r="N6" t="n">
+        <v>570735.3278357437</v>
+      </c>
+      <c r="O6" t="n">
+        <v>570735.3278357439</v>
+      </c>
+      <c r="P6" t="n">
         <v>570735.3278357435</v>
-      </c>
-      <c r="M6" t="n">
-        <v>485680.2999002319</v>
-      </c>
-      <c r="N6" t="n">
-        <v>570735.3278357434</v>
-      </c>
-      <c r="O6" t="n">
-        <v>570735.3278357437</v>
-      </c>
-      <c r="P6" t="n">
-        <v>570735.3278357434</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.5496012734512</v>
+        <v>340.0882417040765</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>134.4831766631883</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0.02814312551458897</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>154.2498708678729</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.0466090246043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07086658759303077</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0.2860387155503474</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.2489785408494</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>225.0197308648142</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>103.5555908111998</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>30.15168286986358</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.610563534389561e-13</v>
       </c>
     </row>
     <row r="26">
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31835,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,10 +32089,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>550.5977692975237</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>451.7125911569009</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>382.1329742631541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>417.5509096439923</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>268.1779244693588</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,22 +33496,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>300.7687781170415</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>346.7710205055867</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>640.2652944187043</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34211,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>336.3457189021232</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34445,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>416.6233618831934</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>313.1582113770268</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>248.1585668488238</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>279.7094706696333</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>130.3364854949998</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.4270660337082</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>206.7892464195652</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>498.1312604966861</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37859,16 +37861,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2975740.455757334</v>
+        <v>2971727.845743341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.64559995940405</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>283.6826708844497</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.4948552110764</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>200.4331707528101</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757276</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.4829866158915</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>105.118613342717</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>25.97544109408777</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.27638937073748</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417148</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695513</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>72.23766645969152</v>
+        <v>94.30373791808114</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>54.2675832342722</v>
+        <v>139.2440807643135</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>137.9792024346647</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695798</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>44.30292280757951</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>47.49734780286086</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428507</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X28" t="n">
-        <v>16.92025364381849</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="29">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>81.29683349370501</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>243.1373908222617</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.7077656527111</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0266533411973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>112.1188594237458</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,10 +4345,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269323</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.243802269323</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8459426266614</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266614</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8354935246787</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8459426266614</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8459426266614</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281156</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.067134668353</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.300519237879</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.300519237879</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.616031031992</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W7" t="n">
-        <v>880.1988609950312</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X7" t="n">
-        <v>880.1988609950312</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.406281851501</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1749.723851760224</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1380.761334819812</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1022.495636213062</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>636.7073836148177</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>225.7214788252101</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>214.6894327106107</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4837,19 +4837,19 @@
         <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3093.390254706436</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3093.390254706436</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2740.621599436322</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.4305777370295</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811323</v>
+        <v>707.6725264685185</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532255</v>
+        <v>538.7363435406115</v>
       </c>
       <c r="D13" t="n">
-        <v>631.70124434089</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E13" t="n">
-        <v>631.70124434089</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429797</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1904.493740652236</v>
+        <v>1882.204779583154</v>
       </c>
       <c r="V13" t="n">
-        <v>1649.809252446349</v>
+        <v>1627.520291377267</v>
       </c>
       <c r="W13" t="n">
-        <v>1360.392082409389</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511372</v>
+        <v>1110.113570442289</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511372</v>
+        <v>889.3209912987584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762974</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356184</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232828</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>631.70124434089</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704554</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806537</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806537</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,16 +5533,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4551.460220646407</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4551.460220646407</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4262.384993990605</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>4262.384993990605</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656151</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377083</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253728</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854708</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817748</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739385</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595855</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511896</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232828</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232828</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>631.70124434089</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429797</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1640.40873486192</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.991564824959</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.991564824959</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.198985681429</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270477</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.502065570314</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8426071208989</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3314.305816915985</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7642,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>793.6995478537118</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>643.582908441376</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>495.6698148589829</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>348.7798673610725</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>213.9468079295524</v>
+        <v>191.8807364711631</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>112.9792378643555</v>
+        <v>28.00274033431432</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.04708356697975</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>181.4067325814575</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>204.640295520967</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193864</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7894017452187</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>64.12421452922624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>43.04708356698248</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.8768876993837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>120.1578210480468</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40527886852308</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739850.7069512766</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820636</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820631</v>
       </c>
-      <c r="D4" t="n">
-        <v>93403.78684820628</v>
-      </c>
       <c r="E4" t="n">
-        <v>14216.75207685521</v>
+        <v>14216.75207685485</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685527</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-832196.9687525512</v>
       </c>
       <c r="C6" t="n">
-        <v>496547.7769750411</v>
+        <v>496547.7769750415</v>
       </c>
       <c r="D6" t="n">
         <v>496547.7769750413</v>
       </c>
       <c r="E6" t="n">
-        <v>245322.8660283876</v>
+        <v>244975.4867740309</v>
       </c>
       <c r="F6" t="n">
-        <v>570735.3278357435</v>
+        <v>570387.9485813868</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.3278357435</v>
+        <v>570387.9485813864</v>
       </c>
       <c r="H6" t="n">
-        <v>570735.3278357432</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="I6" t="n">
-        <v>570735.3278357433</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="J6" t="n">
-        <v>353204.1254384659</v>
+        <v>352856.7461841091</v>
       </c>
       <c r="K6" t="n">
-        <v>570735.3278357437</v>
+        <v>570387.9485813865</v>
       </c>
       <c r="L6" t="n">
-        <v>570735.3278357437</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="M6" t="n">
-        <v>485680.2999002315</v>
+        <v>485332.9206458745</v>
       </c>
       <c r="N6" t="n">
-        <v>570735.3278357437</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="O6" t="n">
-        <v>570735.3278357439</v>
+        <v>570387.9485813865</v>
       </c>
       <c r="P6" t="n">
-        <v>570735.3278357435</v>
+        <v>570387.9485813865</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26792,25 +26792,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340.0882417040765</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>102.5552677716039</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02814312551458897</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>154.2498708678729</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2860387155503474</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>189.4891510446034</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>225.0197308648142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.5555908111998</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-3.131543636902298e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.610563534389561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="29">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>728.6709493241814</v>
+        <v>558.3177848342771</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>491.597732526532</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>451.7125911569009</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,10 +33283,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>300.7687781170415</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>640.2652944187043</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>671.2522281007818</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>597.3292372408481</v>
+        <v>426.9760727509437</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>313.1582113770268</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>169.4270660337082</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>498.1312604966861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>132.4173135558164</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>528.6559836563374</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2971727.845743341</v>
+        <v>2973488.376046127</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>283.6826708844488</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>283.6826708844497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>51.06561173382029</v>
+        <v>51.06561173381984</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>105.118613342717</v>
+        <v>105.1186133427161</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710099</v>
       </c>
       <c r="D11" t="n">
         <v>354.6830416206831</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417148</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1423,16 +1423,16 @@
         <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.97427419833944</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>94.30373791808114</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>139.2440807643135</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>232.6961289392736</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428507</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C2" t="n">
         <v>1617.939223126803</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,10 +4412,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,16 +4746,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
         <v>1875.713122094735</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760224</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="C8" t="n">
         <v>1380.761334819812</v>
       </c>
       <c r="D8" t="n">
-        <v>1022.495636213062</v>
+        <v>1022.495636213061</v>
       </c>
       <c r="E8" t="n">
-        <v>636.7073836148177</v>
+        <v>636.7073836148168</v>
       </c>
       <c r="F8" t="n">
-        <v>225.7214788252101</v>
+        <v>225.7214788252092</v>
       </c>
       <c r="G8" t="n">
-        <v>214.6894327106107</v>
+        <v>214.6894327106098</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4944,22 +4944,22 @@
         <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756267</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.6725264685185</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406115</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282757</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458824</v>
+        <v>194.80077839983</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797194</v>
+        <v>194.80077839983</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583154</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377267</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340306</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442289</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987584</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683287</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270477</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6542,7 +6542,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6882,13 +6882,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7207,7 +7207,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7320,10 +7320,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7414,19 +7414,19 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703114</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424045</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>65.5498640939294</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>191.8807364711631</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.00274033431432</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>53.48834544997058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>136.274905234752</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392193864</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695304</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
@@ -26346,16 +26346,16 @@
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073558</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551201</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685485</v>
+        <v>14216.75207685493</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832196.9687525512</v>
+        <v>-832196.9687525514</v>
       </c>
       <c r="C6" t="n">
-        <v>496547.7769750415</v>
+        <v>496547.7769750413</v>
       </c>
       <c r="D6" t="n">
-        <v>496547.7769750413</v>
+        <v>496547.776975041</v>
       </c>
       <c r="E6" t="n">
-        <v>244975.4867740309</v>
+        <v>245288.1281029522</v>
       </c>
       <c r="F6" t="n">
-        <v>570387.9485813868</v>
+        <v>570700.5899103085</v>
       </c>
       <c r="G6" t="n">
-        <v>570387.9485813864</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="H6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.589910308</v>
       </c>
       <c r="I6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="J6" t="n">
-        <v>352856.7461841091</v>
+        <v>353169.3875130303</v>
       </c>
       <c r="K6" t="n">
-        <v>570387.9485813865</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="L6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="M6" t="n">
-        <v>485332.9206458745</v>
+        <v>485645.5619747957</v>
       </c>
       <c r="N6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="O6" t="n">
-        <v>570387.9485813865</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="P6" t="n">
-        <v>570387.9485813865</v>
+        <v>570700.5899103079</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483761</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>81.59022088655871</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>102.5552677716039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>235.1462264717926</v>
+        <v>235.146226471793</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>189.4891510446034</v>
+        <v>189.4891510446043</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28092,16 +28092,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.496497128820888e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.65407064635153e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.131543636902298e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28143,16 +28143,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
